--- a/data/trans_orig/P25D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E21E51E7-C7F7-47C9-9407-1E51C0FC6D30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C8F74E-60DD-48B2-943E-2A524D36B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{272EE9EE-623E-48E5-B7A4-0E3E77917765}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D23D3F2E-B2E5-484E-B930-F3DAEE96DBAA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
   <si>
     <t>Población que fuma diariamente cigarrillos electrónicos en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,52%</t>
+    <t>1,59%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -104,7 +104,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,48%</t>
+    <t>98,41%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -134,10 +134,10 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -146,136 +146,154 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,34%</t>
+    <t>1,35%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
     <t>1,46%</t>
   </si>
   <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>98,54%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
   </si>
   <si>
     <t>1,17%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>1,08%</t>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
   </si>
   <si>
     <t>0,92%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
   </si>
   <si>
     <t>98,83%</t>
   </si>
   <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>99,3%</t>
   </si>
   <si>
-    <t>98,92%</t>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
   </si>
   <si>
     <t>99,08%</t>
   </si>
   <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -690,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A36E302-C92E-4B9F-AA76-F220BDCDBA90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACF14B5-884C-43A8-B422-218C11F946A4}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1002,10 +1020,10 @@
         <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1020,13 +1038,13 @@
         <v>2129713</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2896</v>
@@ -1035,28 +1053,28 @@
         <v>2226629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>4863</v>
       </c>
       <c r="N8" s="7">
-        <v>4356341</v>
+        <v>4356342</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1098,7 +1116,7 @@
         <v>4900</v>
       </c>
       <c r="N9" s="7">
-        <v>4399404</v>
+        <v>4399405</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1112,7 +1130,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1124,13 +1142,13 @@
         <v>11937</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -1139,13 +1157,13 @@
         <v>8216</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -1154,13 +1172,13 @@
         <v>20153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1175,13 +1193,13 @@
         <v>658997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="H11" s="7">
         <v>991</v>
@@ -1190,13 +1208,13 @@
         <v>704966</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M11" s="7">
         <v>1661</v>
@@ -1205,13 +1223,13 @@
         <v>1363964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1279,13 +1297,13 @@
         <v>39382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -1294,13 +1312,13 @@
         <v>26722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -1309,13 +1327,13 @@
         <v>66103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1330,43 +1348,43 @@
         <v>3327455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>5311</v>
       </c>
       <c r="I14" s="7">
-        <v>3765478</v>
+        <v>3765477</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>8636</v>
       </c>
       <c r="N14" s="7">
-        <v>7092934</v>
+        <v>7092933</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1393,7 +1411,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3792200</v>
+        <v>3792199</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -1408,7 +1426,7 @@
         <v>8697</v>
       </c>
       <c r="N15" s="7">
-        <v>7159037</v>
+        <v>7159036</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -1422,7 +1440,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94C8F74E-60DD-48B2-943E-2A524D36B31B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A8EB7D-901D-4006-B3B2-58BB09968662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D23D3F2E-B2E5-484E-B930-F3DAEE96DBAA}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDEE1DD5-16A9-47C4-9B86-70B51D13716A}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -708,7 +708,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6ACF14B5-884C-43A8-B422-218C11F946A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858A8B82-FF66-4E64-A4F2-E3A1BC7F8A90}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P25D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12A8EB7D-901D-4006-B3B2-58BB09968662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{32921DEE-EEAF-4A91-B5E4-A60FF8AFC8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BDEE1DD5-16A9-47C4-9B86-70B51D13716A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{035C0FC8-D8E2-4652-A25D-F8D70CA533E0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>Población que fuma diariamente cigarrillos electrónicos en 2023 (Tasa respuesta: 99,74%)</t>
   </si>
@@ -77,7 +77,7 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,59%</t>
+    <t>1,52%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -104,7 +104,7 @@
     <t>99,47%</t>
   </si>
   <si>
-    <t>98,41%</t>
+    <t>98,48%</t>
   </si>
   <si>
     <t>99,83%</t>
@@ -134,10 +134,10 @@
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -146,154 +146,136 @@
     <t>0,46%</t>
   </si>
   <si>
-    <t>1,35%</t>
+    <t>1,34%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>99,54%</t>
+  </si>
+  <si>
+    <t>99,02%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
   </si>
   <si>
     <t>99,33%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>99,56%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -708,7 +690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{858A8B82-FF66-4E64-A4F2-E3A1BC7F8A90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0916E-1CD9-403C-99D7-0F2F3C3EBA59}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1020,10 +1002,10 @@
         <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1038,13 +1020,13 @@
         <v>2129713</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2896</v>
@@ -1053,28 +1035,28 @@
         <v>2226629</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>4863</v>
       </c>
       <c r="N8" s="7">
-        <v>4356342</v>
+        <v>4356341</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1116,7 +1098,7 @@
         <v>4900</v>
       </c>
       <c r="N9" s="7">
-        <v>4399405</v>
+        <v>4399404</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1130,7 +1112,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1142,13 +1124,13 @@
         <v>11937</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
@@ -1157,13 +1139,13 @@
         <v>8216</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
@@ -1172,13 +1154,13 @@
         <v>20153</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1193,13 +1175,13 @@
         <v>658997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" s="7">
         <v>991</v>
@@ -1208,13 +1190,13 @@
         <v>704966</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="M11" s="7">
         <v>1661</v>
@@ -1223,13 +1205,13 @@
         <v>1363964</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1297,13 +1279,13 @@
         <v>39382</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -1312,13 +1294,13 @@
         <v>26722</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
@@ -1327,13 +1309,13 @@
         <v>66103</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1348,43 +1330,43 @@
         <v>3327455</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H14" s="7">
         <v>5311</v>
       </c>
       <c r="I14" s="7">
-        <v>3765477</v>
+        <v>3765478</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="M14" s="7">
         <v>8636</v>
       </c>
       <c r="N14" s="7">
-        <v>7092933</v>
+        <v>7092934</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,7 +1393,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3792199</v>
+        <v>3792200</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -1426,7 +1408,7 @@
         <v>8697</v>
       </c>
       <c r="N15" s="7">
-        <v>7159036</v>
+        <v>7159037</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -1440,7 +1422,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P25D_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P25D_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{32921DEE-EEAF-4A91-B5E4-A60FF8AFC8A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D76C8176-57C6-43AB-8966-26D8B34382D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{035C0FC8-D8E2-4652-A25D-F8D70CA533E0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0CF5C689-2DCA-4DB6-88AD-C4C8D382C841}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -71,13 +71,13 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -95,19 +95,19 @@
     <t>0,07%</t>
   </si>
   <si>
-    <t>0,61%</t>
+    <t>0,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -122,7 +122,7 @@
     <t>99,79%</t>
   </si>
   <si>
-    <t>99,39%</t>
+    <t>99,38%</t>
   </si>
   <si>
     <t>99,93%</t>
@@ -131,151 +131,151 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
     <t>1,14%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>98,91%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
   </si>
   <si>
     <t>98,86%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>99,54%</t>
-  </si>
-  <si>
-    <t>99,02%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -690,7 +690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA0916E-1CD9-403C-99D7-0F2F3C3EBA59}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE215511-2A81-4DED-A22D-989672A88333}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -811,7 +811,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>2887</v>
+        <v>2650</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -841,7 +841,7 @@
         <v>3</v>
       </c>
       <c r="N4" s="7">
-        <v>2887</v>
+        <v>2650</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -862,7 +862,7 @@
         <v>688</v>
       </c>
       <c r="D5" s="7">
-        <v>538747</v>
+        <v>512288</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -877,7 +877,7 @@
         <v>1424</v>
       </c>
       <c r="I5" s="7">
-        <v>833882</v>
+        <v>753600</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -892,7 +892,7 @@
         <v>2112</v>
       </c>
       <c r="N5" s="7">
-        <v>1372628</v>
+        <v>1265888</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -913,7 +913,7 @@
         <v>691</v>
       </c>
       <c r="D6" s="7">
-        <v>541634</v>
+        <v>514938</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>26</v>
@@ -928,7 +928,7 @@
         <v>1424</v>
       </c>
       <c r="I6" s="7">
-        <v>833882</v>
+        <v>753600</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>26</v>
@@ -943,7 +943,7 @@
         <v>2115</v>
       </c>
       <c r="N6" s="7">
-        <v>1375515</v>
+        <v>1268538</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>26</v>
@@ -966,7 +966,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>24557</v>
+        <v>23797</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>31</v>
@@ -981,7 +981,7 @@
         <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>18506</v>
+        <v>16446</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>34</v>
@@ -996,16 +996,16 @@
         <v>37</v>
       </c>
       <c r="N7" s="7">
-        <v>43063</v>
+        <v>40243</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1017,46 +1017,46 @@
         <v>1967</v>
       </c>
       <c r="D8" s="7">
-        <v>2129713</v>
+        <v>2259190</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H8" s="7">
         <v>2896</v>
       </c>
       <c r="I8" s="7">
-        <v>2226629</v>
+        <v>2217289</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>4863</v>
       </c>
       <c r="N8" s="7">
-        <v>4356341</v>
+        <v>4476479</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1068,7 +1068,7 @@
         <v>1985</v>
       </c>
       <c r="D9" s="7">
-        <v>2154270</v>
+        <v>2282987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>26</v>
@@ -1083,7 +1083,7 @@
         <v>2915</v>
       </c>
       <c r="I9" s="7">
-        <v>2245135</v>
+        <v>2233735</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>26</v>
@@ -1098,7 +1098,7 @@
         <v>4900</v>
       </c>
       <c r="N9" s="7">
-        <v>4399404</v>
+        <v>4516722</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>26</v>
@@ -1112,7 +1112,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1121,46 +1121,46 @@
         <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>11937</v>
+        <v>10964</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
         <v>12</v>
       </c>
       <c r="I10" s="7">
-        <v>8216</v>
+        <v>7294</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M10" s="7">
         <v>21</v>
       </c>
       <c r="N10" s="7">
-        <v>20153</v>
+        <v>18259</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1172,46 +1172,46 @@
         <v>670</v>
       </c>
       <c r="D11" s="7">
-        <v>658997</v>
+        <v>633646</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H11" s="7">
         <v>991</v>
       </c>
       <c r="I11" s="7">
-        <v>704966</v>
+        <v>652518</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="M11" s="7">
         <v>1661</v>
       </c>
       <c r="N11" s="7">
-        <v>1363964</v>
+        <v>1286162</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1223,7 +1223,7 @@
         <v>679</v>
       </c>
       <c r="D12" s="7">
-        <v>670934</v>
+        <v>644610</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>26</v>
@@ -1238,7 +1238,7 @@
         <v>1003</v>
       </c>
       <c r="I12" s="7">
-        <v>713182</v>
+        <v>659812</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>26</v>
@@ -1253,7 +1253,7 @@
         <v>1682</v>
       </c>
       <c r="N12" s="7">
-        <v>1384117</v>
+        <v>1304421</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>26</v>
@@ -1276,46 +1276,46 @@
         <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>39382</v>
+        <v>37411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
       </c>
       <c r="I13" s="7">
-        <v>26722</v>
+        <v>23740</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M13" s="7">
         <v>61</v>
       </c>
       <c r="N13" s="7">
-        <v>66103</v>
+        <v>61151</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1327,46 +1327,46 @@
         <v>3325</v>
       </c>
       <c r="D14" s="7">
-        <v>3327455</v>
+        <v>3405124</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>5311</v>
       </c>
       <c r="I14" s="7">
-        <v>3765478</v>
+        <v>3623407</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>8636</v>
       </c>
       <c r="N14" s="7">
-        <v>7092934</v>
+        <v>7028531</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>79</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1378,7 +1378,7 @@
         <v>3355</v>
       </c>
       <c r="D15" s="7">
-        <v>3366837</v>
+        <v>3442535</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>26</v>
@@ -1393,7 +1393,7 @@
         <v>5342</v>
       </c>
       <c r="I15" s="7">
-        <v>3792200</v>
+        <v>3647147</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>26</v>
@@ -1408,7 +1408,7 @@
         <v>8697</v>
       </c>
       <c r="N15" s="7">
-        <v>7159037</v>
+        <v>7089682</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
